--- a/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>973.2859776886182</v>
+        <v>891.2507552386833</v>
       </c>
       <c r="C2" t="n">
-        <v>752.366960324978</v>
+        <v>649.0668967120855</v>
       </c>
       <c r="D2" t="n">
-        <v>1185.029055007531</v>
+        <v>1110.778965145688</v>
       </c>
       <c r="E2" t="n">
         <v>613</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>-852.8854319726732</v>
+        <v>-778.6563393590721</v>
       </c>
       <c r="C3" t="n">
-        <v>-1070.034074340715</v>
+        <v>-1014.353698742283</v>
       </c>
       <c r="D3" t="n">
-        <v>-623.1196989739707</v>
+        <v>-533.2628551848459</v>
       </c>
       <c r="E3" t="n">
         <v>1520</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>1034.40428917198</v>
+        <v>1051.55647186183</v>
       </c>
       <c r="C4" t="n">
-        <v>809.9796347179924</v>
+        <v>808.3583024575728</v>
       </c>
       <c r="D4" t="n">
-        <v>1247.554954537312</v>
+        <v>1287.243981172716</v>
       </c>
       <c r="E4" t="n">
         <v>1219</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>912.7411230763247</v>
+        <v>950.9006881049208</v>
       </c>
       <c r="C5" t="n">
-        <v>676.933880993755</v>
+        <v>710.6081205066918</v>
       </c>
       <c r="D5" t="n">
-        <v>1134.990538765113</v>
+        <v>1209.750212806742</v>
       </c>
       <c r="E5" t="n">
         <v>990</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>943.2258380446067</v>
+        <v>973.1973218282874</v>
       </c>
       <c r="C6" t="n">
-        <v>716.1847964268713</v>
+        <v>742.1731217188842</v>
       </c>
       <c r="D6" t="n">
-        <v>1169.854549156296</v>
+        <v>1194.236250528878</v>
       </c>
       <c r="E6" t="n">
         <v>732</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>34075.57645610196</v>
+        <v>28037.33511535805</v>
       </c>
       <c r="C2" t="n">
-        <v>184.5957108280199</v>
+        <v>167.4435281381698</v>
       </c>
       <c r="D2" t="n">
-        <v>184.5957108280199</v>
+        <v>167.4435281381698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1514320843544052</v>
+        <v>0.1373613848549383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1514320843544052</v>
+        <v>0.1373613848549383</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1638371877741035</v>
+        <v>0.1474911813145682</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -663,22 +663,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>129805.9857190435</v>
+        <v>77423.48279089763</v>
       </c>
       <c r="C3" t="n">
-        <v>360.2859776886182</v>
+        <v>278.2507552386833</v>
       </c>
       <c r="D3" t="n">
-        <v>360.2859776886182</v>
+        <v>278.2507552386833</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5877422148264572</v>
+        <v>0.4539164033257476</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5877422148264572</v>
+        <v>0.4539164033257476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4542509771328773</v>
+        <v>0.3699526216219616</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5630585.273268141</v>
+        <v>5283820.966475651</v>
       </c>
       <c r="C4" t="n">
-        <v>2372.885431972673</v>
+        <v>2298.656339359072</v>
       </c>
       <c r="D4" t="n">
-        <v>2372.885431972673</v>
+        <v>2298.656339359072</v>
       </c>
       <c r="E4" t="n">
-        <v>1.561108836824127</v>
+        <v>1.512273907473074</v>
       </c>
       <c r="F4" t="n">
-        <v>1.561108836824127</v>
+        <v>1.512273907473074</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -715,25 +715,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>25292.64436057701</v>
+        <v>29852.45212390356</v>
       </c>
       <c r="C5" t="n">
-        <v>159.0366132705831</v>
+        <v>172.7786217212753</v>
       </c>
       <c r="D5" t="n">
-        <v>144.242357484141</v>
+        <v>140.1483168616833</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1832995788294771</v>
+        <v>0.18449939622813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1832995788294771</v>
+        <v>0.18449939622813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1666919652380842</v>
+        <v>0.1615932666379506</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>891.2507552386833</v>
+        <v>897.4952362390163</v>
       </c>
       <c r="C2" t="n">
-        <v>649.0668967120855</v>
+        <v>662.0148298810292</v>
       </c>
       <c r="D2" t="n">
-        <v>1110.778965145688</v>
+        <v>1128.532982164653</v>
       </c>
       <c r="E2" t="n">
         <v>613</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>-778.6563393590721</v>
+        <v>-862.6952749341834</v>
       </c>
       <c r="C3" t="n">
-        <v>-1014.353698742283</v>
+        <v>-1116.346516004896</v>
       </c>
       <c r="D3" t="n">
-        <v>-533.2628551848459</v>
+        <v>-622.6253452303247</v>
       </c>
       <c r="E3" t="n">
         <v>1520</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>1051.55647186183</v>
+        <v>1031.361143024956</v>
       </c>
       <c r="C4" t="n">
-        <v>808.3583024575728</v>
+        <v>799.9202058046209</v>
       </c>
       <c r="D4" t="n">
-        <v>1287.243981172716</v>
+        <v>1269.903757240643</v>
       </c>
       <c r="E4" t="n">
         <v>1219</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>950.9006881049208</v>
+        <v>915.8567488953435</v>
       </c>
       <c r="C5" t="n">
-        <v>710.6081205066918</v>
+        <v>671.7343388295341</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.750212806742</v>
+        <v>1158.192030820888</v>
       </c>
       <c r="E5" t="n">
         <v>990</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>973.1973218282874</v>
+        <v>949.4956175050464</v>
       </c>
       <c r="C6" t="n">
-        <v>742.1731217188842</v>
+        <v>714.1086323246842</v>
       </c>
       <c r="D6" t="n">
-        <v>1194.236250528878</v>
+        <v>1198.000419113493</v>
       </c>
       <c r="E6" t="n">
         <v>732</v>
@@ -637,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28037.33511535805</v>
+        <v>35208.34064690096</v>
       </c>
       <c r="C2" t="n">
-        <v>167.4435281381698</v>
+        <v>187.6388569750438</v>
       </c>
       <c r="D2" t="n">
-        <v>167.4435281381698</v>
+        <v>187.6388569750438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1373613848549383</v>
+        <v>0.1539285126948678</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1373613848549383</v>
+        <v>0.1539285126948678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1474911813145682</v>
+        <v>0.1667633282387892</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -663,22 +663,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>77423.48279089763</v>
+        <v>80937.53944269371</v>
       </c>
       <c r="C3" t="n">
-        <v>278.2507552386833</v>
+        <v>284.4952362390163</v>
       </c>
       <c r="D3" t="n">
-        <v>278.2507552386833</v>
+        <v>284.4952362390163</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4539164033257476</v>
+        <v>0.4641031586280854</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4539164033257476</v>
+        <v>0.4641031586280854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3699526216219616</v>
+        <v>0.3766913385935348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,19 +689,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>5283820.966475651</v>
+        <v>5677236.773193684</v>
       </c>
       <c r="C4" t="n">
-        <v>2298.656339359072</v>
+        <v>2382.695274934184</v>
       </c>
       <c r="D4" t="n">
-        <v>2298.656339359072</v>
+        <v>2382.695274934184</v>
       </c>
       <c r="E4" t="n">
-        <v>1.512273907473074</v>
+        <v>1.567562680877752</v>
       </c>
       <c r="F4" t="n">
-        <v>1.512273907473074</v>
+        <v>1.567562680877752</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -715,25 +715,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>29852.45212390356</v>
+        <v>26400.78265913481</v>
       </c>
       <c r="C5" t="n">
-        <v>172.7786217212753</v>
+        <v>162.4831765418648</v>
       </c>
       <c r="D5" t="n">
-        <v>140.1483168616833</v>
+        <v>145.8194343048515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.18449939622813</v>
+        <v>0.1860086666795031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18449939622813</v>
+        <v>0.1860086666795031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1615932666379506</v>
+        <v>0.1682493722731001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
+++ b/modelos/OBASAL4421651/OBASAL4421651_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>897.4952362390163</v>
       </c>
       <c r="C2" t="n">
-        <v>662.0148298810292</v>
+        <v>658.0735196262173</v>
       </c>
       <c r="D2" t="n">
-        <v>1128.532982164653</v>
+        <v>1131.365977395229</v>
       </c>
       <c r="E2" t="n">
         <v>613</v>
@@ -499,10 +499,10 @@
         <v>-862.6952749341834</v>
       </c>
       <c r="C3" t="n">
-        <v>-1116.346516004896</v>
+        <v>-1107.637166988434</v>
       </c>
       <c r="D3" t="n">
-        <v>-622.6253452303247</v>
+        <v>-610.7029916101783</v>
       </c>
       <c r="E3" t="n">
         <v>1520</v>
@@ -519,10 +519,10 @@
         <v>1031.361143024956</v>
       </c>
       <c r="C4" t="n">
-        <v>799.9202058046209</v>
+        <v>783.0237847466285</v>
       </c>
       <c r="D4" t="n">
-        <v>1269.903757240643</v>
+        <v>1287.794476440371</v>
       </c>
       <c r="E4" t="n">
         <v>1219</v>
@@ -539,10 +539,10 @@
         <v>915.8567488953435</v>
       </c>
       <c r="C5" t="n">
-        <v>671.7343388295341</v>
+        <v>676.3883336835304</v>
       </c>
       <c r="D5" t="n">
-        <v>1158.192030820888</v>
+        <v>1160.969215767578</v>
       </c>
       <c r="E5" t="n">
         <v>990</v>
@@ -559,10 +559,10 @@
         <v>949.4956175050464</v>
       </c>
       <c r="C6" t="n">
-        <v>714.1086323246842</v>
+        <v>702.1191048285007</v>
       </c>
       <c r="D6" t="n">
-        <v>1198.000419113493</v>
+        <v>1182.558478374092</v>
       </c>
       <c r="E6" t="n">
         <v>732</v>
